--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,17 +482,17 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -512,18 +512,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,25 +536,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2, 4, 6</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,19 +573,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,25 +594,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -617,17 +625,17 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -635,7 +643,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -647,22 +655,26 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -671,20 +683,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,19 +720,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -739,7 +751,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -747,7 +759,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -756,17 +768,17 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -774,7 +786,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -783,29 +795,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -814,25 +822,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -841,29 +849,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -872,29 +876,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -903,29 +903,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -934,25 +926,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4, 6, 8</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -961,29 +957,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -992,29 +984,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1023,22 +1011,18 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1064,19 +1048,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1088,26 +1072,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1116,25 +1096,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1143,25 +1123,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6, 8</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1170,25 +1154,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1197,25 +1181,29 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4, 6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1224,17 +1212,17 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1242,7 +1230,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1261,19 +1249,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1282,20 +1270,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2, 4, 6, 8</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1319,7 +1311,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1327,7 +1319,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1336,25 +1328,29 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1363,20 +1359,24 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,25 +482,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,25 +505,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,14 +543,14 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +559,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,29 +586,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -625,25 +613,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -655,26 +643,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -694,14 +678,14 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -713,26 +697,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -741,17 +721,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -759,7 +739,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -768,25 +748,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -795,25 +779,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,25 +810,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -849,25 +841,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -886,7 +882,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -894,7 +890,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -903,21 +899,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -926,29 +930,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -957,25 +961,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -984,17 +992,17 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1002,7 +1010,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1011,25 +1019,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1038,29 +1046,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1069,17 +1073,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1087,7 +1091,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1096,25 +1100,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1123,29 +1131,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1154,17 +1158,17 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1172,7 +1176,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1181,29 +1185,29 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1212,25 +1216,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1249,19 +1257,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1270,29 +1278,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1304,22 +1308,26 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1328,29 +1336,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1359,24 +1363,20 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,14 +543,14 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,25 +559,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -597,14 +597,14 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -624,7 +624,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -712,7 +712,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,20 +721,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -770,7 +774,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,14 +798,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -820,7 +824,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -832,7 +836,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -841,29 +845,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -872,25 +872,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -899,29 +903,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -930,29 +930,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -961,29 +957,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -992,25 +984,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1029,7 +1025,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1037,7 +1033,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1046,25 +1042,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1110,19 +1110,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1131,25 +1131,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1158,25 +1162,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1185,29 +1193,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1216,29 +1220,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1247,29 +1247,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1278,25 +1274,29 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1305,29 +1305,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1336,20 +1332,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +702,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,24 +849,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -874,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,24 +879,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -908,7 +900,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,7 +919,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -942,7 +934,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,24 +943,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,7 +964,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -985,20 +973,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1025,7 +1017,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1036,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1037,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1075,20 +1071,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,24 +1139,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,20 +1169,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1203,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1237,24 +1233,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1262,7 +1254,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,20 +1263,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1288,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,12 +1307,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1365,20 +1361,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,20 +1395,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1416,7 +1420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1425,24 +1429,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +702,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,20 +785,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -806,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -815,24 +819,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -879,20 +879,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -900,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,12 +923,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -964,7 +968,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +987,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -998,7 +1002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,20 +1011,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1028,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1037,24 +1045,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1062,7 +1066,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1081,12 +1085,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1105,24 +1109,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,20 +1139,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1169,24 +1173,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1233,20 +1233,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1254,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1263,24 +1267,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,20 +1331,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1361,24 +1365,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,24 +1395,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1420,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1429,20 +1425,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +702,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,24 +785,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,20 +815,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -879,24 +879,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -904,7 +900,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -913,24 +909,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -938,7 +930,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -947,20 +939,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -968,7 +964,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,24 +973,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1036,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1037,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,12 +1081,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,20 +1105,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,24 +1139,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,20 +1169,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1233,24 +1237,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,20 +1267,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1297,24 +1301,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,24 +1331,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1386,7 +1382,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,20 +1391,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,20 +849,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -870,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -889,7 +893,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -900,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,7 +923,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -930,7 +934,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,12 +953,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -964,7 +968,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +987,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -994,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1018,7 +1022,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1037,24 +1041,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1105,24 +1105,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,20 +1135,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1237,20 +1237,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1258,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,24 +1271,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,20 +1331,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1382,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1401,12 +1405,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1425,24 +1429,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +612,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,7 +732,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,20 +785,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -806,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -830,7 +834,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -840,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,24 +853,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,20 +883,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -904,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +927,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -934,7 +938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -943,24 +947,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,20 +977,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -998,7 +1002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,12 +1021,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1062,7 +1066,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1081,7 +1085,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1096,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1115,7 +1119,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1126,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1135,24 +1139,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1203,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,7 +1277,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1292,7 +1288,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,7 +1307,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1322,7 +1318,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1341,12 +1337,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1365,20 +1361,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,24 +1395,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1420,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1429,20 +1425,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,24 +751,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +791,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -810,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,24 +815,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,7 +836,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,20 +845,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -874,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,24 +879,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +930,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,7 +949,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -968,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -992,7 +984,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1002,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1011,24 +1003,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1036,7 +1024,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1033,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1058,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1090,7 +1082,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1092,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,20 +1101,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,20 +1135,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1233,24 +1237,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,20 +1267,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1307,7 +1311,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1318,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1327,24 +1331,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,20 +751,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -772,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -781,24 +785,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -815,20 +815,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -836,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -855,12 +859,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -870,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -879,20 +883,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -900,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -909,20 +917,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -930,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +961,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -960,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,12 +991,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -994,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1003,20 +1015,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1024,7 +1040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1033,24 +1049,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1058,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1067,24 +1079,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1092,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1111,12 +1119,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1135,24 +1143,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1169,24 +1173,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1203,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,7 +1243,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1292,7 +1288,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1301,20 +1297,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +702,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,24 +751,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,20 +781,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,20 +951,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,24 +985,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,24 +1015,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1040,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1049,20 +1045,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,24 +1109,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1134,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,20 +1139,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1233,20 +1237,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1254,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1263,24 +1271,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1297,24 +1301,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,20 +1331,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1371,12 +1375,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1405,7 +1409,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1416,7 +1420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1425,24 +1429,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +582,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,20 +751,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -772,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,12 +795,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -806,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -825,12 +829,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -840,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,12 +863,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -874,7 +878,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,12 +897,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -908,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,24 +921,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,24 +951,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -985,20 +981,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1079,20 +1079,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1100,7 +1104,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1123,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1130,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,24 +1143,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1203,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,20 +1267,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,24 +1331,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1356,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1375,12 +1371,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1386,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1399,20 +1395,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">

--- a/generated/oliva1988.xlsx
+++ b/generated/oliva1988.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,24 +751,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +791,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -806,7 +802,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -815,24 +811,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +866,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,12 +885,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -908,7 +900,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -932,7 +924,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -942,7 +934,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -961,7 +953,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -972,7 +964,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,24 +973,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1025,12 +1013,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1047,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1070,7 +1058,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1079,20 +1067,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1134,7 +1126,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,20 +1135,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,20 +1169,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1243,7 +1247,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1254,7 +1258,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1263,24 +1267,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1361,24 +1361,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1386,7 +1382,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,20 +1391,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
